--- a/data/reports/W44_2025.xlsx
+++ b/data/reports/W44_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AA9D45-D973-44BA-B5FB-2AD4E6D6B8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484A0E35-2865-47E9-8B8C-51E27E1D4C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>due 28 Oct</t>
   </si>
   <si>
-    <t>Extreme</t>
-  </si>
-  <si>
     <t>COP 2025</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>GCMC Design Team Weeky WIP</t>
+  </si>
+  <si>
+    <t>Medium-High</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -692,16 +692,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,19 +723,19 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -743,92 +743,92 @@
     </row>
     <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>8</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>14</v>
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>15</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>16</v>
@@ -888,7 +888,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>18</v>
@@ -998,27 +998,27 @@
     </row>
     <row r="19" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>12</v>
@@ -1027,24 +1027,24 @@
         <v>7</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,16 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E21">
     <sortCondition ref="A3:A21"/>
   </sortState>
+  <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{E5BFD1E3-D60A-48B7-887F-264F651EBB2F}">
+      <formula1>"Very Light,Light,Medium,Medium-High,High,Overloaded"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D21" xr:uid="{57C0FF5B-A281-498F-B368-FFF48C59A553}">
+      <formula1>"To Do,In Progress,In Review,Done,On-hold"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/reports/W44_2025.xlsx
+++ b/data/reports/W44_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484A0E35-2865-47E9-8B8C-51E27E1D4C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF83D567-6449-4DA6-AF0E-24DB200674D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1061,7 +1061,7 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{E5BFD1E3-D60A-48B7-887F-264F651EBB2F}">
-      <formula1>"Very Light,Light,Medium,Medium-High,High,Overloaded"</formula1>
+      <formula1>"Very Light,Light,Medium,Med-High,High,Overloaded"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D21" xr:uid="{57C0FF5B-A281-498F-B368-FFF48C59A553}">
       <formula1>"To Do,In Progress,In Review,Done,On-hold"</formula1>

--- a/data/reports/W44_2025.xlsx
+++ b/data/reports/W44_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF83D567-6449-4DA6-AF0E-24DB200674D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F2B51-750F-4C16-AA36-3FF657C1A57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
     <t>GCMC Design Team Weeky WIP</t>
   </si>
   <si>
-    <t>Medium-High</t>
+    <t>Med-High</t>
   </si>
 </sst>
 </file>

--- a/data/reports/W44_2025.xlsx
+++ b/data/reports/W44_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F2B51-750F-4C16-AA36-3FF657C1A57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30777AE7-4396-4C9E-9BAB-D265B55E8841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
     <t>GCMC Design Team Weeky WIP</t>
   </si>
   <si>
-    <t>Med-High</t>
+    <t>Overloaded</t>
   </si>
 </sst>
 </file>

--- a/data/reports/W44_2025.xlsx
+++ b/data/reports/W44_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30777AE7-4396-4C9E-9BAB-D265B55E8841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FDCEE3-EAC0-4F98-B76B-DBCB79B9514D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
     <t>GCMC Design Team Weeky WIP</t>
   </si>
   <si>
-    <t>Overloaded</t>
+    <t>Med-High</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>

--- a/data/reports/W44_2025.xlsx
+++ b/data/reports/W44_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FDCEE3-EAC0-4F98-B76B-DBCB79B9514D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD88839-196A-4001-AE87-1403D74A7140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,10 +216,10 @@
     <t>Last updated 28 Oct, 15:07</t>
   </si>
   <si>
-    <t>GCMC Design Team Weeky WIP</t>
-  </si>
-  <si>
     <t>Med-High</t>
+  </si>
+  <si>
+    <t>GCMC Design Team Weeky Report</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -695,13 +695,13 @@
         <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
